--- a/semanas/anderson.xlsx
+++ b/semanas/anderson.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9d74efda82f0b99c/UERJ/2. R/@R AS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\IME05-AS\semanas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_C43A0DBEDC6FEDBAEC14881ADD5B09E52CAE9E6D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64823C2C-B553-4071-9FB2-DE7E5A065570}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FA6A84-9265-4ABF-A909-3C8CFCF23D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -362,9 +362,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -387,92 +385,92 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1.45</v>
+        <v>2.8</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1.47</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>2.2000000000000002</v>
+        <v>4.91</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>2.5299999999999998</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>1.78</v>
+        <v>4.01</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -481,15 +479,15 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>2.57</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -498,49 +496,49 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>2.3199999999999998</v>
+        <v>2.42</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>2.0099999999999998</v>
+        <v>3.49</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.0499999999999998</v>
+        <v>3.97</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -549,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2.16</v>
+        <v>3.2</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -557,16 +555,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>3.6</v>
+        <v>2.31</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -574,16 +572,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>2.88</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -591,16 +589,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>2.6</v>
+        <v>3.28</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -608,16 +606,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>2.7</v>
+        <v>4.43</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -625,7 +623,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -634,32 +632,32 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2.96</v>
+        <v>3.52</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -668,41 +666,41 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.43</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>3.2</v>
+        <v>3.26</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>2.31</v>
+        <v>2.8</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -710,16 +708,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>4.0599999999999996</v>
+        <v>2.7</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -727,7 +725,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -736,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.28</v>
+        <v>2.96</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -744,24 +742,24 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>1.97</v>
+        <v>2.6</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -770,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>2.73</v>
+        <v>3.49</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -778,7 +776,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -787,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.95</v>
+        <v>2.12</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -795,7 +793,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -804,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>2.2999999999999998</v>
+        <v>1.5</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -821,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>1.5</v>
+        <v>3.06</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -829,7 +827,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -838,15 +836,15 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>3.06</v>
+        <v>2.88</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -855,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>3.49</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -863,41 +861,41 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>2.12</v>
+        <v>3.6</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31">
-        <v>3.52</v>
+        <v>2.16</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -906,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -914,41 +912,41 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33">
-        <v>2.3199999999999998</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34">
-        <v>3.26</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -957,15 +955,15 @@
         <v>1</v>
       </c>
       <c r="D35">
-        <v>3.49</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -974,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>3.97</v>
+        <v>2.73</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -982,7 +980,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -991,15 +989,15 @@
         <v>1</v>
       </c>
       <c r="D37">
-        <v>4.3600000000000003</v>
+        <v>2.57</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -1008,7 +1006,7 @@
         <v>1</v>
       </c>
       <c r="D38">
-        <v>2.42</v>
+        <v>1.97</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -1016,90 +1014,93 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39">
-        <v>4.01</v>
+        <v>1.78</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40">
-        <v>4.91</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41">
-        <v>4.4800000000000004</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="D42">
-        <v>2.8</v>
+        <v>1.47</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43">
-        <v>5</v>
+        <v>1.45</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E43">
+    <sortCondition ref="A2:A43"/>
+  </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>